--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>Alto</t>
+  </si>
+  <si>
+    <t>Riesgo AAAA</t>
+  </si>
+  <si>
+    <t>Improbable</t>
+  </si>
+  <si>
+    <t>Insignificante</t>
+  </si>
+  <si>
+    <t>Riesgo z</t>
+  </si>
+  <si>
+    <t>Riesgo ZZ</t>
+  </si>
+  <si>
+    <t>Posible</t>
+  </si>
+  <si>
+    <t>Riesgo ZZZ</t>
+  </si>
+  <si>
+    <t>Medio Alto</t>
   </si>
 </sst>
 </file>
@@ -425,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +628,112 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>1.9</v>
+      </c>
+      <c r="G10">
+        <v>2.85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Medio Alto</t>
+  </si>
+  <si>
+    <t>Riesgo Testing</t>
+  </si>
+  <si>
+    <t>Casi Certeza</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>Muy Probable</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +746,35 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
     </row>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Muy Probable</t>
+  </si>
+  <si>
+    <t>Riesgo Testingg</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +778,35 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/evaluacion_riesgo.xlsx
+++ b/evaluacion_riesgo.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>Reporte Evaluación de Riesgo</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -44,91 +47,19 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Riesgo B</t>
-  </si>
-  <si>
-    <t>Rara</t>
-  </si>
-  <si>
-    <t>Grave</t>
-  </si>
-  <si>
-    <t>Bajo</t>
-  </si>
-  <si>
-    <t>alto</t>
-  </si>
-  <si>
-    <t>bajo</t>
-  </si>
-  <si>
-    <t>moderado</t>
+    <t>Inadecuada gestión y desempeño de Bantotal por Incumplimiento en la ejecución de tareas y actividades de diseño y desarrollo de software, puede afecta</t>
+  </si>
+  <si>
+    <t>Improbable</t>
+  </si>
+  <si>
+    <t>Moderado</t>
   </si>
   <si>
     <t>Activo</t>
   </si>
   <si>
-    <t>Riesgo A</t>
-  </si>
-  <si>
-    <t>Menor</t>
-  </si>
-  <si>
-    <t>Riesgo AA</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>nivel alto</t>
-  </si>
-  <si>
-    <t>RIESGO 21</t>
-  </si>
-  <si>
-    <t>Riesgo AAA</t>
-  </si>
-  <si>
-    <t>Alto</t>
-  </si>
-  <si>
-    <t>Riesgo AAAA</t>
-  </si>
-  <si>
-    <t>Improbable</t>
-  </si>
-  <si>
-    <t>Insignificante</t>
-  </si>
-  <si>
-    <t>Riesgo z</t>
-  </si>
-  <si>
-    <t>Riesgo ZZ</t>
-  </si>
-  <si>
-    <t>Posible</t>
-  </si>
-  <si>
-    <t>Riesgo ZZZ</t>
-  </si>
-  <si>
-    <t>Medio Alto</t>
-  </si>
-  <si>
-    <t>Riesgo Testing</t>
-  </si>
-  <si>
-    <t>Casi Certeza</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
-    <t>Muy Probable</t>
-  </si>
-  <si>
-    <t>Riesgo Testingg</t>
+    <t>Inadecuada2 gestión y desempeño de Bantotal por Incumplimiento en la ejecución de tareas y actividades de diseño y desarrollo de software, puede afect</t>
   </si>
 </sst>
 </file>
@@ -136,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -146,13 +77,37 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B7ADE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,8 +116,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -464,353 +425,145 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4.5</v>
+      </c>
+      <c r="G7">
+        <v>10000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1.9</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>1.9</v>
-      </c>
-      <c r="G5">
-        <v>1.9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>1.9</v>
-      </c>
-      <c r="G6">
-        <v>2.85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>1007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8"/>
+      <c r="F8">
+        <v>4.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>1008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>1009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>1.9</v>
-      </c>
-      <c r="G10">
-        <v>2.85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>1010</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>1011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:R2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
